--- a/1试件设计与加工/1焊接工艺/角焊缝试验记录单.xlsx
+++ b/1试件设计与加工/1焊接工艺/角焊缝试验记录单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaochen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\1试件设计与加工\1焊接工艺\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6843B-E6ED-4A6F-A3DA-452921F98ED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="2205" yWindow="3195" windowWidth="21525" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="试验过程记录单" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="侧面角焊缝应变花" sheetId="5" r:id="rId5"/>
     <sheet name="201901角焊缝试验焊接工艺" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -791,7 +792,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
@@ -1007,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,16 +1027,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1043,6 +1038,18 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,28 +1081,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1127,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1170,7 +1171,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1208,7 +1215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1246,7 +1259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1284,7 +1303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1327,7 +1352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1615,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1654,8 +1685,8 @@
       </c>
     </row>
     <row r="2" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1664,104 +1695,104 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
@@ -1770,14 +1801,14 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="14"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -18179,8 +18210,8 @@
       <c r="XFD15" s="2"/>
     </row>
     <row r="16" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
@@ -18189,104 +18220,104 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>6</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1">
         <v>6</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>7</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1">
         <v>7</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>8</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1">
         <v>8</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>9</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1">
         <v>9</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
@@ -18295,14 +18326,14 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="14"/>
       <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -34704,8 +34735,8 @@
       <c r="XFD29" s="2"/>
     </row>
     <row r="30" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
@@ -34714,104 +34745,104 @@
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="14"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1">
         <v>4</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>6</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="1">
         <v>6</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>7</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="1">
         <v>7</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>8</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="1">
         <v>8</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>9</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="1">
         <v>9</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
@@ -34820,14 +34851,14 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="14"/>
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -51229,8 +51260,8 @@
       <c r="XFD43" s="2"/>
     </row>
     <row r="44" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="14"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
@@ -51239,104 +51270,104 @@
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="14"/>
       <c r="F45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="1">
         <v>2</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>3</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>4</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="1">
         <v>4</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>6</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="1">
         <v>6</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>8</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>9</v>
       </c>
-      <c r="D54" s="12"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
@@ -51345,14 +51376,14 @@
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="14"/>
       <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -51372,10 +51403,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
@@ -51390,15 +51421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -51407,10 +51438,10 @@
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -51419,8 +51450,8 @@
       <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -51434,8 +51465,8 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -51453,8 +51484,8 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -51469,8 +51500,8 @@
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -51480,30 +51511,30 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -51748,7 +51779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -51762,23 +51793,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -51832,9 +51863,9 @@
       <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
       <c r="V2" s="1" t="s">
         <v>60</v>
       </c>
@@ -51900,24 +51931,24 @@
       <c r="Q3">
         <v>0.56200000000000006</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="9">
         <f>D3+F3/6+O3/15+K3/4+I3/4+M3/13</f>
         <v>0.5949871794871795</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="9">
         <f>D3+F3/6+(I3+K3+P3)/5+(E3+O3+M3)/15</f>
         <v>0.58273333333333333</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="9">
         <f>D3+(F3+E3)/6+(I3+K3+P3)/5+(O3+M3)/15</f>
         <v>0.61373333333333335</v>
       </c>
@@ -51974,9 +52005,9 @@
       <c r="Q4" t="s">
         <v>63</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
       <c r="V4" s="1" t="s">
         <v>112</v>
       </c>
@@ -52018,32 +52049,32 @@
       <c r="O5">
         <v>2.29</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="9">
         <f>D4+F4/6+O4/15+K4/4+I4/4+M4/13</f>
         <v>0.62184615384615383</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="9">
         <f>D4+F4/6+(I4+K4+P4)/5+(E4+O4+M4)/15</f>
         <v>0.59360000000000002</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="9">
         <f>D4+(F4+E4)/6+(I4+K4+P4)/5+(O4+M4)/15</f>
         <v>0.62160000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
       <c r="V6" s="1" t="s">
         <v>113</v>
       </c>
@@ -52075,7 +52106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52084,225 +52115,223 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>240</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>27</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>350</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f>C2*D2*60/1000/E2</f>
         <v>1.110857142857143</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>200</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>26</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2">
         <v>400</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="7">
         <f>K2*L2*60/1000/M2</f>
         <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G3" s="9"/>
-      <c r="K3" s="6">
+      <c r="G3" s="7"/>
+      <c r="K3">
         <v>220</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>30</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>350</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <f>K3*L3*60/1000/M3</f>
         <v>1.1314285714285715</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="G4" s="9"/>
-      <c r="K4" s="6">
+      <c r="G4" s="7"/>
+      <c r="K4">
         <v>240</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>300</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <f>K4*L4*60/1000/M4</f>
         <v>1.536</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>240</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>27</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>350</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G7" si="0">C5*D5*60/1000/E5</f>
         <v>1.110857142857143</v>
       </c>
-      <c r="O5" s="9"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="6">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>250</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>27</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>350</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="6">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>250</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>27</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>350</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>1.1571428571428573</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
+      <c r="A61" t="s">
         <v>73</v>
       </c>
     </row>
@@ -52314,7 +52343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52349,28 +52378,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="27"/>
-    <col min="3" max="3" width="17.625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="17.625" style="13" customWidth="1"/>
     <col min="4" max="6" width="9" style="3"/>
     <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -52399,10 +52428,10 @@
       <c r="A2" s="3">
         <v>90</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="26" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5">
@@ -52411,7 +52440,7 @@
       <c r="E2" s="5">
         <v>241</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="10">
         <v>27</v>
       </c>
       <c r="G2" s="5">
@@ -52420,21 +52449,21 @@
       <c r="H2" s="5">
         <v>175</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="11">
         <f>E2*F2*60/1000/G2</f>
         <v>1.2277358490566039</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" s="5">
         <v>240</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="10">
         <v>27</v>
       </c>
       <c r="G3" s="5">
@@ -52443,7 +52472,7 @@
       <c r="H3" s="5">
         <v>165</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I64" si="0">E3*F3*60/1000/G3</f>
         <v>1.2342857142857144</v>
       </c>
@@ -52452,10 +52481,10 @@
       <c r="A4" s="3">
         <v>75</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="5">
@@ -52464,7 +52493,7 @@
       <c r="E4" s="5">
         <v>240</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="10">
         <v>26.9</v>
       </c>
       <c r="G4" s="5">
@@ -52473,21 +52502,21 @@
       <c r="H4" s="5">
         <v>170</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>1.2495483870967743</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5">
         <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>242</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="10">
         <v>27</v>
       </c>
       <c r="G5" s="5">
@@ -52496,7 +52525,7 @@
       <c r="H5" s="5">
         <v>185</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>1.2445714285714287</v>
       </c>
@@ -52505,10 +52534,10 @@
       <c r="A6" s="3">
         <v>75</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="5">
@@ -52517,7 +52546,7 @@
       <c r="E6" s="5">
         <v>240</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="10">
         <v>27</v>
       </c>
       <c r="G6" s="5">
@@ -52526,21 +52555,21 @@
       <c r="H6" s="5">
         <v>165</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>242</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="10">
         <v>27.1</v>
       </c>
       <c r="G7" s="5">
@@ -52549,16 +52578,16 @@
       <c r="H7" s="5">
         <v>190</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="11">
         <f t="shared" si="0"/>
         <v>1.2611923076923079</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="5">
@@ -52567,7 +52596,7 @@
       <c r="E8" s="5">
         <v>240</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="10">
         <v>26.8</v>
       </c>
       <c r="G8" s="5">
@@ -52576,21 +52605,21 @@
       <c r="H8" s="5">
         <v>155</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>1.2251428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="5">
         <v>240</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="10">
         <v>27</v>
       </c>
       <c r="G9" s="5">
@@ -52599,16 +52628,16 @@
       <c r="H9" s="5">
         <v>175</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="5">
@@ -52617,7 +52646,7 @@
       <c r="E10" s="5">
         <v>242</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="10">
         <v>27.2</v>
       </c>
       <c r="G10" s="5">
@@ -52626,21 +52655,21 @@
       <c r="H10" s="5">
         <v>150</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="11">
         <f t="shared" si="0"/>
         <v>1.2537904761904763</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>240</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="10">
         <v>27</v>
       </c>
       <c r="G11" s="5">
@@ -52649,16 +52678,16 @@
       <c r="H11" s="5">
         <v>180</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="11">
         <f t="shared" si="0"/>
         <v>1.2342857142857144</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="5">
@@ -52667,7 +52696,7 @@
       <c r="E12" s="5">
         <v>241</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="10">
         <v>27.2</v>
       </c>
       <c r="G12" s="5">
@@ -52676,21 +52705,21 @@
       <c r="H12" s="5">
         <v>145</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
         <v>1.2291000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="5">
         <v>242</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="10">
         <v>27</v>
       </c>
       <c r="G13" s="5">
@@ -52699,16 +52728,16 @@
       <c r="H13" s="5">
         <v>170</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="11">
         <f t="shared" si="0"/>
         <v>1.2406329113924051</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="5">
@@ -52717,7 +52746,7 @@
       <c r="E14" s="5">
         <v>240</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="10">
         <v>26.8</v>
       </c>
       <c r="G14" s="5">
@@ -52726,21 +52755,21 @@
       <c r="H14" s="5">
         <v>150</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="11">
         <f t="shared" si="0"/>
         <v>1.236923076923077</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5">
         <v>5</v>
       </c>
       <c r="E15" s="5">
         <v>242</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="10">
         <v>27</v>
       </c>
       <c r="G15" s="5">
@@ -52749,13 +52778,13 @@
       <c r="H15" s="5">
         <v>180</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="11">
         <f t="shared" si="0"/>
         <v>1.2525239616613419</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -52781,10 +52810,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="5">
@@ -52793,7 +52822,7 @@
       <c r="E17" s="5">
         <v>242</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="10">
         <v>27</v>
       </c>
       <c r="G17" s="5">
@@ -52802,21 +52831,21 @@
       <c r="H17" s="5">
         <v>145</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="11">
         <f t="shared" si="0"/>
         <v>1.225125</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="5">
         <v>5</v>
       </c>
       <c r="E18" s="5">
         <v>243</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="10">
         <v>27.2</v>
       </c>
       <c r="G18" s="5">
@@ -52825,16 +52854,16 @@
       <c r="H18" s="5">
         <v>170</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>1.2792774193548386</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="5">
@@ -52843,7 +52872,7 @@
       <c r="E19" s="5">
         <v>240</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="10">
         <v>27</v>
       </c>
       <c r="G19" s="5">
@@ -52852,21 +52881,21 @@
       <c r="H19" s="5">
         <v>150</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="11">
         <f t="shared" si="0"/>
         <v>1.2303797468354432</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="5">
         <v>5</v>
       </c>
       <c r="E20" s="5">
         <v>241</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="10">
         <v>27</v>
       </c>
       <c r="G20" s="5">
@@ -52875,16 +52904,16 @@
       <c r="H20" s="5">
         <v>175</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>1.2513461538461539</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D21" s="5">
@@ -52893,7 +52922,7 @@
       <c r="E21" s="5">
         <v>240</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="10">
         <v>26.9</v>
       </c>
       <c r="G21" s="5">
@@ -52902,21 +52931,21 @@
       <c r="H21" s="5">
         <v>148</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>1.2495483870967743</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="5">
         <v>5</v>
       </c>
       <c r="E22" s="5">
         <v>241</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="10">
         <v>27</v>
       </c>
       <c r="G22" s="5">
@@ -52925,16 +52954,16 @@
       <c r="H22" s="5">
         <v>178</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="11">
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="24" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="5">
@@ -52943,7 +52972,7 @@
       <c r="E23" s="5">
         <v>243</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="10">
         <v>27.1</v>
       </c>
       <c r="G23" s="5">
@@ -52952,21 +52981,21 @@
       <c r="H23" s="5">
         <v>150</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="11">
         <f t="shared" si="0"/>
         <v>1.2157476923076922</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="5">
         <v>5</v>
       </c>
       <c r="E24" s="5">
         <v>242</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="10">
         <v>27.1</v>
       </c>
       <c r="G24" s="5">
@@ -52975,16 +53004,16 @@
       <c r="H24" s="5">
         <v>170</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>1.2373962264150946</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="5">
@@ -52993,7 +53022,7 @@
       <c r="E25" s="5">
         <v>243</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="10">
         <v>27.1</v>
       </c>
       <c r="G25" s="5">
@@ -53002,21 +53031,21 @@
       <c r="H25" s="5">
         <v>150</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>1.266403846153846</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="10"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="E26" s="5">
         <v>240</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="10">
         <v>27</v>
       </c>
       <c r="G26" s="5">
@@ -53025,16 +53054,16 @@
       <c r="H26" s="5">
         <v>180</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D27" s="5">
@@ -53043,7 +53072,7 @@
       <c r="E27" s="5">
         <v>240</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="10">
         <v>26.9</v>
       </c>
       <c r="G27" s="5">
@@ -53052,21 +53081,21 @@
       <c r="H27" s="5">
         <v>149</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="11">
         <f t="shared" si="0"/>
         <v>1.2258227848101266</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="10"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="5">
         <v>242</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="10">
         <v>27</v>
       </c>
       <c r="G28" s="5">
@@ -53075,16 +53104,16 @@
       <c r="H28" s="5">
         <v>173</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="11">
         <f t="shared" si="0"/>
         <v>1.2565384615384616</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="5">
@@ -53093,7 +53122,7 @@
       <c r="E29" s="5">
         <v>240</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="10">
         <v>27</v>
       </c>
       <c r="G29" s="5">
@@ -53102,21 +53131,21 @@
       <c r="H29" s="5">
         <v>150</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="11">
         <f t="shared" si="0"/>
         <v>1.2342857142857144</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="5">
         <v>5</v>
       </c>
       <c r="E30" s="5">
         <v>241</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="10">
         <v>27</v>
       </c>
       <c r="G30" s="5">
@@ -53125,16 +53154,16 @@
       <c r="H30" s="5">
         <v>185</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="11">
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>131</v>
       </c>
       <c r="D31" s="5">
@@ -53143,7 +53172,7 @@
       <c r="E31" s="5">
         <v>240</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="10">
         <v>27.3</v>
       </c>
       <c r="G31" s="5">
@@ -53152,21 +53181,21 @@
       <c r="H31" s="5">
         <v>148</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="11">
         <f t="shared" si="0"/>
         <v>1.2681290322580645</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="10"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="5">
         <v>5</v>
       </c>
       <c r="E32" s="5">
         <v>240</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="10">
         <v>27.1</v>
       </c>
       <c r="G32" s="5">
@@ -53175,16 +53204,16 @@
       <c r="H32" s="5">
         <v>180</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="11">
         <f t="shared" si="0"/>
         <v>1.2588387096774194</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="5">
@@ -53193,7 +53222,7 @@
       <c r="E33" s="5">
         <v>242</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="10">
         <v>27</v>
       </c>
       <c r="G33" s="5">
@@ -53202,21 +53231,21 @@
       <c r="H33" s="5">
         <v>149</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="11">
         <f t="shared" si="0"/>
         <v>1.2728571428571429</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="5">
         <v>5</v>
       </c>
       <c r="E34" s="5">
         <v>240</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="10">
         <v>27.1</v>
       </c>
       <c r="G34" s="5">
@@ -53225,16 +53254,16 @@
       <c r="H34" s="5">
         <v>175</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="11">
         <f t="shared" si="0"/>
         <v>1.2752941176470589</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D35" s="5">
@@ -53243,7 +53272,7 @@
       <c r="E35" s="5">
         <v>242</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="10">
         <v>26.9</v>
       </c>
       <c r="G35" s="5">
@@ -53252,21 +53281,21 @@
       <c r="H35" s="5">
         <v>148</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="11">
         <f t="shared" si="0"/>
         <v>1.2399619047619046</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="10"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="5">
         <v>5</v>
       </c>
       <c r="E36" s="5">
         <v>242</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="10">
         <v>27</v>
       </c>
       <c r="G36" s="5">
@@ -53275,16 +53304,16 @@
       <c r="H36" s="5">
         <v>187</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="11">
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="24" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="5">
@@ -53293,7 +53322,7 @@
       <c r="E37" s="5">
         <v>240</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="10">
         <v>27</v>
       </c>
       <c r="G37" s="5">
@@ -53302,21 +53331,21 @@
       <c r="H37" s="5">
         <v>150</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="5">
         <v>5</v>
       </c>
       <c r="E38" s="5">
         <v>240</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="10">
         <v>26.9</v>
       </c>
       <c r="G38" s="5">
@@ -53325,16 +53354,16 @@
       <c r="H38" s="5">
         <v>179</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="11">
         <f t="shared" si="0"/>
         <v>1.2297142857142858</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D39" s="5">
@@ -53343,7 +53372,7 @@
       <c r="E39" s="5">
         <v>240</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="10">
         <v>27</v>
       </c>
       <c r="G39" s="5">
@@ -53352,21 +53381,21 @@
       <c r="H39" s="5">
         <v>150</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="11">
         <f t="shared" si="0"/>
         <v>1.2150000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="5">
         <v>5</v>
       </c>
       <c r="E40" s="5">
         <v>240</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="10">
         <v>26.9</v>
       </c>
       <c r="G40" s="5">
@@ -53375,16 +53404,16 @@
       <c r="H40" s="5">
         <v>177</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="11">
         <f t="shared" si="0"/>
         <v>1.2297142857142858</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="5">
@@ -53393,7 +53422,7 @@
       <c r="E41" s="5">
         <v>242</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="10">
         <v>27</v>
       </c>
       <c r="G41" s="5">
@@ -53402,21 +53431,21 @@
       <c r="H41" s="5">
         <v>142</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="11">
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="10"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="5">
         <v>5</v>
       </c>
       <c r="E42" s="5">
         <v>240</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="10">
         <v>27</v>
       </c>
       <c r="G42" s="5">
@@ -53425,16 +53454,16 @@
       <c r="H42" s="5">
         <v>175</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="11">
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>143</v>
       </c>
       <c r="D43" s="5">
@@ -53443,7 +53472,7 @@
       <c r="E43" s="5">
         <v>242</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="10">
         <v>27.1</v>
       </c>
       <c r="G43" s="5">
@@ -53452,21 +53481,21 @@
       <c r="H43" s="5">
         <v>146</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="11">
         <f t="shared" si="0"/>
         <v>1.2373962264150946</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="10"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="5">
         <v>5</v>
       </c>
       <c r="E44" s="5">
         <v>241</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="10">
         <v>27</v>
       </c>
       <c r="G44" s="5">
@@ -53475,16 +53504,16 @@
       <c r="H44" s="5">
         <v>185</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I44" s="11">
         <f t="shared" si="0"/>
         <v>1.2594193548387098</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D45" s="5">
@@ -53493,7 +53522,7 @@
       <c r="E45" s="5">
         <v>242</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="10">
         <v>27.2</v>
       </c>
       <c r="G45" s="5">
@@ -53502,21 +53531,21 @@
       <c r="H45" s="5">
         <v>139</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="11">
         <f t="shared" si="0"/>
         <v>1.2537904761904763</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="10"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="5">
         <v>5</v>
       </c>
       <c r="E46" s="5">
         <v>241</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="10">
         <v>27</v>
       </c>
       <c r="G46" s="5">
@@ -53525,16 +53554,16 @@
       <c r="H46" s="5">
         <v>170</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="11">
         <f t="shared" si="0"/>
         <v>1.2758823529411765</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>145</v>
       </c>
       <c r="D47" s="5">
@@ -53543,7 +53572,7 @@
       <c r="E47" s="5">
         <v>240</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="10">
         <v>27</v>
       </c>
       <c r="G47" s="5">
@@ -53552,21 +53581,21 @@
       <c r="H47" s="5">
         <v>141</v>
       </c>
-      <c r="I47" s="25">
+      <c r="I47" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="10"/>
-      <c r="C48" s="29"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="5">
         <v>5</v>
       </c>
       <c r="E48" s="5">
         <v>242</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="10">
         <v>27</v>
       </c>
       <c r="G48" s="5">
@@ -53575,16 +53604,16 @@
       <c r="H48" s="5">
         <v>173</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="11">
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>146</v>
       </c>
       <c r="D49" s="5">
@@ -53593,7 +53622,7 @@
       <c r="E49" s="5">
         <v>243</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="10">
         <v>27.1</v>
       </c>
       <c r="G49" s="5">
@@ -53602,21 +53631,21 @@
       <c r="H49" s="5">
         <v>138</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I49" s="11">
         <f t="shared" si="0"/>
         <v>1.2828506493506493</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="10"/>
-      <c r="C50" s="29"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="5">
         <v>5</v>
       </c>
       <c r="E50" s="5">
         <v>240</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="10">
         <v>26.9</v>
       </c>
       <c r="G50" s="5">
@@ -53625,16 +53654,16 @@
       <c r="H50" s="5">
         <v>171</v>
       </c>
-      <c r="I50" s="25">
+      <c r="I50" s="11">
         <f t="shared" si="0"/>
         <v>1.2415384615384615</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D51" s="5">
@@ -53643,7 +53672,7 @@
       <c r="E51" s="5">
         <v>241</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="10">
         <v>27.1</v>
       </c>
       <c r="G51" s="5">
@@ -53652,21 +53681,21 @@
       <c r="H51" s="5">
         <v>140</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="11">
         <f t="shared" si="0"/>
         <v>1.2440190476190476</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="10"/>
-      <c r="C52" s="29"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="5">
         <v>5</v>
       </c>
       <c r="E52" s="5">
         <v>239</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="10">
         <v>27.2</v>
       </c>
       <c r="G52" s="5">
@@ -53675,16 +53704,16 @@
       <c r="H52" s="5">
         <v>165</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="11">
         <f t="shared" si="0"/>
         <v>1.2582193548387097</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="24" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="5">
@@ -53693,7 +53722,7 @@
       <c r="E53" s="5">
         <v>240</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="10">
         <v>27</v>
       </c>
       <c r="G53" s="5">
@@ -53702,21 +53731,21 @@
       <c r="H53" s="5">
         <v>149</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="11">
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="10"/>
-      <c r="C54" s="29"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="5">
         <v>5</v>
       </c>
       <c r="E54" s="5">
         <v>243</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="10">
         <v>27.2</v>
       </c>
       <c r="G54" s="5">
@@ -53725,16 +53754,16 @@
       <c r="H54" s="5">
         <v>190</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I54" s="11">
         <f t="shared" si="0"/>
         <v>1.2792774193548386</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D55" s="5">
@@ -53743,7 +53772,7 @@
       <c r="E55" s="5">
         <v>241</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="10">
         <v>27</v>
       </c>
       <c r="G55" s="5">
@@ -53752,21 +53781,21 @@
       <c r="H55" s="5">
         <v>142</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="11">
         <f t="shared" si="0"/>
         <v>1.2634951456310679</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="10"/>
-      <c r="C56" s="29"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="5">
         <v>240</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="10">
         <v>27</v>
       </c>
       <c r="G56" s="5">
@@ -53775,16 +53804,16 @@
       <c r="H56" s="5">
         <v>180</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="11">
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>138</v>
       </c>
       <c r="D57" s="5">
@@ -53793,7 +53822,7 @@
       <c r="E57" s="5">
         <v>242</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="10">
         <v>27</v>
       </c>
       <c r="G57" s="5">
@@ -53802,21 +53831,21 @@
       <c r="H57" s="5">
         <v>141</v>
       </c>
-      <c r="I57" s="25">
+      <c r="I57" s="11">
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="10"/>
-      <c r="C58" s="29"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="5">
         <v>5</v>
       </c>
       <c r="E58" s="5">
         <v>242</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="10">
         <v>27</v>
       </c>
       <c r="G58" s="5">
@@ -53825,16 +53854,16 @@
       <c r="H58" s="5">
         <v>170</v>
       </c>
-      <c r="I58" s="25">
+      <c r="I58" s="11">
         <f t="shared" si="0"/>
         <v>1.2445714285714287</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>139</v>
       </c>
       <c r="D59" s="5">
@@ -53843,7 +53872,7 @@
       <c r="E59" s="5">
         <v>240</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="10">
         <v>27.1</v>
       </c>
       <c r="G59" s="5">
@@ -53852,21 +53881,21 @@
       <c r="H59" s="5">
         <v>138</v>
       </c>
-      <c r="I59" s="25">
+      <c r="I59" s="11">
         <f t="shared" si="0"/>
         <v>1.2271698113207548</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="10"/>
-      <c r="C60" s="29"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="5">
         <v>5</v>
       </c>
       <c r="E60" s="5">
         <v>241</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="10">
         <v>27</v>
       </c>
       <c r="G60" s="5">
@@ -53875,16 +53904,16 @@
       <c r="H60" s="5">
         <v>169</v>
       </c>
-      <c r="I60" s="25">
+      <c r="I60" s="11">
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D61" s="5">
@@ -53893,7 +53922,7 @@
       <c r="E61" s="5">
         <v>240</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="10">
         <v>26.8</v>
       </c>
       <c r="G61" s="5">
@@ -53902,21 +53931,21 @@
       <c r="H61" s="5">
         <v>135</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I61" s="11">
         <f t="shared" si="0"/>
         <v>1.2251428571428571</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="10"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="5">
         <v>242</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="10">
         <v>27.1</v>
       </c>
       <c r="G62" s="5">
@@ -53925,16 +53954,16 @@
       <c r="H62" s="5">
         <v>171</v>
       </c>
-      <c r="I62" s="25">
+      <c r="I62" s="11">
         <f t="shared" si="0"/>
         <v>1.2693290322580648</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="24" t="s">
         <v>141</v>
       </c>
       <c r="D63" s="5">
@@ -53943,7 +53972,7 @@
       <c r="E63" s="5">
         <v>240</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="10">
         <v>27</v>
       </c>
       <c r="G63" s="5">
@@ -53952,21 +53981,21 @@
       <c r="H63" s="5">
         <v>143</v>
       </c>
-      <c r="I63" s="25">
+      <c r="I63" s="11">
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="10"/>
-      <c r="C64" s="29"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="5">
         <v>5</v>
       </c>
       <c r="E64" s="5">
         <v>242</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="10">
         <v>26.9</v>
       </c>
       <c r="G64" s="5">
@@ -53975,13 +54004,37 @@
       <c r="H64" s="5">
         <v>186</v>
       </c>
-      <c r="I64" s="25">
+      <c r="I64" s="11">
         <f t="shared" si="0"/>
         <v>1.2599612903225805</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
@@ -53989,30 +54042,6 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1试件设计与加工/1焊接工艺/角焊缝试验记录单.xlsx
+++ b/1试件设计与加工/1焊接工艺/角焊缝试验记录单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\#Graduate-thesis\1试件设计与加工\1焊接工艺\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B6843B-E6ED-4A6F-A3DA-452921F98ED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF61C06-73BB-446A-A4FF-AE37401745CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="3195" windowWidth="21525" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="试验过程记录单" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="154">
   <si>
     <t>试件编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +793,30 @@
   <si>
     <t>30_6</t>
   </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -854,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1002,13 +1031,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1131,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -52379,10 +52464,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -52392,10 +52477,20 @@
     <col min="3" max="3" width="17.625" style="13" customWidth="1"/>
     <col min="4" max="6" width="9" style="3"/>
     <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="8" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="17.625" style="37" customWidth="1"/>
+    <col min="12" max="14" width="9" style="34"/>
+    <col min="15" max="15" width="11.125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="9" style="34"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="17.625" style="42" customWidth="1"/>
+    <col min="19" max="21" width="9" style="34"/>
+    <col min="22" max="22" width="11.125" style="34" customWidth="1"/>
+    <col min="23" max="23" width="9" style="34"/>
+    <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>75</v>
       </c>
@@ -52423,8 +52518,44 @@
       <c r="I1" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>90</v>
       </c>
@@ -52453,8 +52584,46 @@
         <f>E2*F2*60/1000/G2</f>
         <v>1.2277358490566039</v>
       </c>
+      <c r="K2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5">
+        <v>240</v>
+      </c>
+      <c r="N2" s="10">
+        <v>22.4</v>
+      </c>
+      <c r="O2" s="5">
+        <v>333</v>
+      </c>
+      <c r="P2" s="11">
+        <f>M2*N2*60/1000/O2</f>
+        <v>0.96864864864864864</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="5">
+        <v>6</v>
+      </c>
+      <c r="T2" s="5">
+        <v>240</v>
+      </c>
+      <c r="U2" s="10">
+        <v>22.4</v>
+      </c>
+      <c r="V2" s="5">
+        <v>333</v>
+      </c>
+      <c r="W2" s="11">
+        <f>T2*U2*60/1000/V2</f>
+        <v>0.96864864864864864</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B3" s="8"/>
       <c r="C3" s="27"/>
       <c r="D3" s="5">
@@ -52476,8 +52645,42 @@
         <f t="shared" ref="I3:I64" si="0">E3*F3*60/1000/G3</f>
         <v>1.2342857142857144</v>
       </c>
+      <c r="K3" s="27"/>
+      <c r="L3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5">
+        <v>245</v>
+      </c>
+      <c r="N3" s="10">
+        <v>22.3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>289</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" ref="P3:P5" si="1">M3*N3*60/1000/O3</f>
+        <v>1.1342906574394465</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="5">
+        <v>10</v>
+      </c>
+      <c r="T3" s="5">
+        <v>245</v>
+      </c>
+      <c r="U3" s="10">
+        <v>22.3</v>
+      </c>
+      <c r="V3" s="5">
+        <v>289</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" ref="W3:W5" si="2">T3*U3*60/1000/V3</f>
+        <v>1.1342906574394465</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>75</v>
       </c>
@@ -52506,8 +52709,46 @@
         <f t="shared" si="0"/>
         <v>1.2495483870967743</v>
       </c>
+      <c r="K4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6</v>
+      </c>
+      <c r="M4" s="5">
+        <v>266</v>
+      </c>
+      <c r="N4" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>289</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4579377162629759</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" s="5">
+        <v>6</v>
+      </c>
+      <c r="T4" s="5">
+        <v>266</v>
+      </c>
+      <c r="U4" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="V4" s="5">
+        <v>289</v>
+      </c>
+      <c r="W4" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4579377162629759</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B5" s="8"/>
       <c r="C5" s="27"/>
       <c r="D5" s="5">
@@ -52529,8 +52770,42 @@
         <f t="shared" si="0"/>
         <v>1.2445714285714287</v>
       </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>271</v>
+      </c>
+      <c r="N5" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="O5" s="5">
+        <v>296</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="1"/>
+        <v>1.4502162162162162</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="5">
+        <v>10</v>
+      </c>
+      <c r="T5" s="5">
+        <v>271</v>
+      </c>
+      <c r="U5" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="V5" s="5">
+        <v>296</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4502162162162162</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>75</v>
       </c>
@@ -52556,11 +52831,49 @@
         <v>165</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="0"/>
+        <f>E6*F6*60/1000/G6</f>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K6" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>300</v>
+      </c>
+      <c r="N6" s="10">
+        <v>28.9</v>
+      </c>
+      <c r="O6" s="5">
+        <v>320</v>
+      </c>
+      <c r="P6" s="11">
+        <f>M6*N6*60/1000/O6</f>
+        <v>1.6256250000000001</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="5">
+        <v>6</v>
+      </c>
+      <c r="T6" s="5">
+        <v>300</v>
+      </c>
+      <c r="U6" s="10">
+        <v>28.9</v>
+      </c>
+      <c r="V6" s="5">
+        <v>320</v>
+      </c>
+      <c r="W6" s="11">
+        <f>T6*U6*60/1000/V6</f>
+        <v>1.6256250000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B7" s="8"/>
       <c r="C7" s="27"/>
       <c r="D7" s="5">
@@ -52582,8 +52895,42 @@
         <f t="shared" si="0"/>
         <v>1.2611923076923079</v>
       </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="5">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5">
+        <v>299</v>
+      </c>
+      <c r="N7" s="10">
+        <v>28.9</v>
+      </c>
+      <c r="O7" s="5">
+        <v>286</v>
+      </c>
+      <c r="P7" s="11">
+        <f>M7*N7*60/1000/O7</f>
+        <v>1.8128181818181819</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="5">
+        <v>10</v>
+      </c>
+      <c r="T7" s="5">
+        <v>299</v>
+      </c>
+      <c r="U7" s="10">
+        <v>28.9</v>
+      </c>
+      <c r="V7" s="5">
+        <v>286</v>
+      </c>
+      <c r="W7" s="11">
+        <f>T7*U7*60/1000/V7</f>
+        <v>1.8128181818181819</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
@@ -52609,8 +52956,20 @@
         <f t="shared" si="0"/>
         <v>1.2251428571428571</v>
       </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="11"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B9" s="8"/>
       <c r="C9" s="27"/>
       <c r="D9" s="5">
@@ -52632,8 +52991,20 @@
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
@@ -52659,8 +53030,44 @@
         <f t="shared" si="0"/>
         <v>1.2537904761904763</v>
       </c>
+      <c r="K10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5">
+        <v>265</v>
+      </c>
+      <c r="N10" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="O10" s="5">
+        <v>420</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" ref="P8:P10" si="3">M10*N10*60/1000/O10</f>
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>265</v>
+      </c>
+      <c r="U10" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="V10" s="5">
+        <v>420</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" ref="W10:W15" si="4">T10*U10*60/1000/V10</f>
+        <v>0.98050000000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
       <c r="C11" s="27"/>
       <c r="D11" s="5">
@@ -52682,8 +53089,40 @@
         <f t="shared" si="0"/>
         <v>1.2342857142857144</v>
       </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>250</v>
+      </c>
+      <c r="N11" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>260</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" ref="P11:P31" si="5">M11*N11*60/1000/O11</f>
+        <v>1.5288461538461537</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="5">
+        <v>2</v>
+      </c>
+      <c r="T11" s="5">
+        <v>250</v>
+      </c>
+      <c r="U11" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="V11" s="5">
+        <v>260</v>
+      </c>
+      <c r="W11" s="11">
+        <f t="shared" si="4"/>
+        <v>1.5288461538461537</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -52709,8 +53148,40 @@
         <f t="shared" si="0"/>
         <v>1.2291000000000001</v>
       </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
+        <v>260</v>
+      </c>
+      <c r="N12" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="O12" s="5">
+        <v>300</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="5"/>
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="5">
+        <v>3</v>
+      </c>
+      <c r="T12" s="5">
+        <v>260</v>
+      </c>
+      <c r="U12" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="V12" s="5">
+        <v>300</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3779999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="27"/>
       <c r="D13" s="5">
@@ -52732,8 +53203,40 @@
         <f t="shared" si="0"/>
         <v>1.2406329113924051</v>
       </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
+        <v>257</v>
+      </c>
+      <c r="N13" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="O13" s="5">
+        <v>247</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6543724696356275</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="5">
+        <v>4</v>
+      </c>
+      <c r="T13" s="5">
+        <v>257</v>
+      </c>
+      <c r="U13" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="V13" s="5">
+        <v>247</v>
+      </c>
+      <c r="W13" s="11">
+        <f t="shared" si="4"/>
+        <v>1.6543724696356275</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
         <v>84</v>
       </c>
@@ -52759,8 +53262,40 @@
         <f t="shared" si="0"/>
         <v>1.236923076923077</v>
       </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>258</v>
+      </c>
+      <c r="N14" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>227</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="5"/>
+        <v>1.8071365638766521</v>
+      </c>
+      <c r="R14" s="38"/>
+      <c r="S14" s="5">
+        <v>5</v>
+      </c>
+      <c r="T14" s="5">
+        <v>258</v>
+      </c>
+      <c r="U14" s="10">
+        <v>26.5</v>
+      </c>
+      <c r="V14" s="5">
+        <v>227</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.8071365638766521</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="C15" s="27"/>
       <c r="D15" s="5">
@@ -52782,8 +53317,40 @@
         <f t="shared" si="0"/>
         <v>1.2525239616613419</v>
       </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5">
+        <v>243</v>
+      </c>
+      <c r="N15" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="O15" s="5">
+        <v>204</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9011176470588234</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="5">
+        <v>6</v>
+      </c>
+      <c r="T15" s="5">
+        <v>243</v>
+      </c>
+      <c r="U15" s="10">
+        <v>26.6</v>
+      </c>
+      <c r="V15" s="5">
+        <v>204</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9011176470588234</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>76</v>
       </c>
@@ -52808,8 +53375,20 @@
       <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="11"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="11"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>85</v>
       </c>
@@ -52835,8 +53414,44 @@
         <f t="shared" si="0"/>
         <v>1.225125</v>
       </c>
+      <c r="K17" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
+        <v>264</v>
+      </c>
+      <c r="N17" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O17" s="5">
+        <v>313</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2904792332268371</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>264</v>
+      </c>
+      <c r="U17" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V17" s="5">
+        <v>313</v>
+      </c>
+      <c r="W17" s="11">
+        <f t="shared" ref="W17:W19" si="6">T17*U17*60/1000/V17</f>
+        <v>1.2904792332268371</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="25"/>
       <c r="D18" s="5">
@@ -52858,8 +53473,40 @@
         <f t="shared" si="0"/>
         <v>1.2792774193548386</v>
       </c>
+      <c r="K18" s="25"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
+        <v>262</v>
+      </c>
+      <c r="N18" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O18" s="5">
+        <v>234</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="5"/>
+        <v>1.7130769230769232</v>
+      </c>
+      <c r="R18" s="40"/>
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>260</v>
+      </c>
+      <c r="U18" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V18" s="5">
+        <v>333</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" si="6"/>
+        <v>1.1945945945945946</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -52885,8 +53532,40 @@
         <f t="shared" si="0"/>
         <v>1.2303797468354432</v>
       </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
+        <v>275</v>
+      </c>
+      <c r="N19" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>172</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="5"/>
+        <v>2.4462209302325579</v>
+      </c>
+      <c r="R19" s="40"/>
+      <c r="S19" s="5">
+        <v>3</v>
+      </c>
+      <c r="T19" s="5">
+        <v>268</v>
+      </c>
+      <c r="U19" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V19" s="5">
+        <v>300</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="6"/>
+        <v>1.3668</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
       <c r="C20" s="25"/>
       <c r="D20" s="5">
@@ -52908,8 +53587,39 @@
         <f t="shared" si="0"/>
         <v>1.2513461538461539</v>
       </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
+        <v>273</v>
+      </c>
+      <c r="N20" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O20" s="5">
+        <v>413</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0113559322033898</v>
+      </c>
+      <c r="R20" s="40"/>
+      <c r="S20" s="5">
+        <v>4</v>
+      </c>
+      <c r="T20" s="5">
+        <v>273</v>
+      </c>
+      <c r="U20" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V20" s="5">
+        <v>413</v>
+      </c>
+      <c r="W20" s="11">
+        <v>1.0113559322033898</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
@@ -52935,8 +53645,29 @@
         <f t="shared" si="0"/>
         <v>1.2495483870967743</v>
       </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
+        <v>260</v>
+      </c>
+      <c r="N21" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>333</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="5"/>
+        <v>1.1945945945945946</v>
+      </c>
+      <c r="R21" s="40"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B22" s="8"/>
       <c r="C22" s="25"/>
       <c r="D22" s="5">
@@ -52958,8 +53689,42 @@
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
+      <c r="K22" s="25"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>268</v>
+      </c>
+      <c r="N22" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O22" s="5">
+        <v>300</v>
+      </c>
+      <c r="P22" s="11">
+        <f t="shared" si="5"/>
+        <v>1.3668</v>
+      </c>
+      <c r="R22" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>269</v>
+      </c>
+      <c r="U22" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V22" s="28">
+        <v>288</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" ref="W22:W24" si="7">T22*U22*60/1000/V22</f>
+        <v>1.4290624999999999</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
         <v>88</v>
       </c>
@@ -52985,8 +53750,31 @@
         <f t="shared" si="0"/>
         <v>1.2157476923076922</v>
       </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="11"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="5">
+        <v>2</v>
+      </c>
+      <c r="T23" s="5">
+        <v>268</v>
+      </c>
+      <c r="U23" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V23" s="28">
+        <v>281.25</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="7"/>
+        <v>1.4579200000000001</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="8"/>
       <c r="C24" s="25"/>
       <c r="D24" s="5">
@@ -53008,8 +53796,31 @@
         <f t="shared" si="0"/>
         <v>1.2373962264150946</v>
       </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="11"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="5">
+        <v>3</v>
+      </c>
+      <c r="T24" s="5">
+        <v>277</v>
+      </c>
+      <c r="U24" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V24" s="28">
+        <v>257.14285714285717</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="7"/>
+        <v>1.6481499999999998</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>89</v>
       </c>
@@ -53035,8 +53846,41 @@
         <f t="shared" si="0"/>
         <v>1.266403846153846</v>
       </c>
+      <c r="K25" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
+        <v>269</v>
+      </c>
+      <c r="N25" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O25" s="28">
+        <v>288</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="5"/>
+        <v>1.4290624999999999</v>
+      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="5">
+        <v>4</v>
+      </c>
+      <c r="T25" s="5">
+        <v>267</v>
+      </c>
+      <c r="U25" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V25" s="28">
+        <v>227.84810126582278</v>
+      </c>
+      <c r="W25" s="11">
+        <v>1.792905</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="8"/>
       <c r="C26" s="25"/>
       <c r="D26" s="5">
@@ -53058,8 +53902,29 @@
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
+        <v>267</v>
+      </c>
+      <c r="N26" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O26" s="28">
+        <v>227.84810126582278</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="5"/>
+        <v>1.792905</v>
+      </c>
+      <c r="R26" s="40"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="11"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="12" t="s">
         <v>90</v>
       </c>
@@ -53085,8 +53950,29 @@
         <f t="shared" si="0"/>
         <v>1.2258227848101266</v>
       </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>274</v>
+      </c>
+      <c r="N27" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O27" s="28">
+        <v>191.48936170212767</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="5"/>
+        <v>2.18926</v>
+      </c>
+      <c r="R27" s="40"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="8"/>
       <c r="C28" s="25"/>
       <c r="D28" s="5">
@@ -53108,8 +53994,42 @@
         <f t="shared" si="0"/>
         <v>1.2565384615384616</v>
       </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5">
+        <v>278</v>
+      </c>
+      <c r="N28" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O28" s="28">
+        <v>439.02439024390242</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="5"/>
+        <v>0.96882999999999997</v>
+      </c>
+      <c r="R28" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <v>258</v>
+      </c>
+      <c r="U28" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V28" s="28">
+        <v>279.06976744186045</v>
+      </c>
+      <c r="W28" s="11">
+        <f t="shared" ref="W28:W31" si="8">T28*U28*60/1000/V28</f>
+        <v>1.4144850000000002</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="12" t="s">
         <v>91</v>
       </c>
@@ -53135,8 +54055,40 @@
         <f t="shared" si="0"/>
         <v>1.2342857142857144</v>
       </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5">
+        <v>268</v>
+      </c>
+      <c r="N29" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O29" s="28">
+        <v>281.25</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="5"/>
+        <v>1.4579200000000001</v>
+      </c>
+      <c r="R29" s="40"/>
+      <c r="S29" s="5">
+        <v>2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>272</v>
+      </c>
+      <c r="U29" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V29" s="28">
+        <v>266.66666666666669</v>
+      </c>
+      <c r="W29" s="11">
+        <f t="shared" si="8"/>
+        <v>1.5606</v>
+      </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" s="25"/>
       <c r="D30" s="5">
@@ -53158,8 +54110,40 @@
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5">
+        <v>277</v>
+      </c>
+      <c r="N30" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O30" s="28">
+        <v>257.14285714285717</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6481499999999998</v>
+      </c>
+      <c r="R30" s="40"/>
+      <c r="S30" s="5">
+        <v>3</v>
+      </c>
+      <c r="T30" s="5">
+        <v>275</v>
+      </c>
+      <c r="U30" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V30" s="28">
+        <v>257.14285714285717</v>
+      </c>
+      <c r="W30" s="11">
+        <f t="shared" si="8"/>
+        <v>1.6362499999999998</v>
+      </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
         <v>92</v>
       </c>
@@ -53185,8 +54169,40 @@
         <f t="shared" si="0"/>
         <v>1.2681290322580645</v>
       </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
+        <v>273</v>
+      </c>
+      <c r="N31" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O31" s="28">
+        <v>211.76470588235293</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9724250000000001</v>
+      </c>
+      <c r="R31" s="40"/>
+      <c r="S31" s="5">
+        <v>4</v>
+      </c>
+      <c r="T31" s="5">
+        <v>260</v>
+      </c>
+      <c r="U31" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="V31" s="28">
+        <v>233.76623376623377</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="8"/>
+        <v>1.7017</v>
+      </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B32" s="8"/>
       <c r="C32" s="25"/>
       <c r="D32" s="5">
@@ -53208,8 +54224,20 @@
         <f t="shared" si="0"/>
         <v>1.2588387096774194</v>
       </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="11"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="11"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
         <v>93</v>
       </c>
@@ -53235,8 +54263,20 @@
         <f t="shared" si="0"/>
         <v>1.2728571428571429</v>
       </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="11"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="25"/>
       <c r="D34" s="5">
@@ -53258,8 +54298,17 @@
         <f t="shared" si="0"/>
         <v>1.2752941176470589</v>
       </c>
+      <c r="K34" s="25"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="11"/>
+      <c r="R34" s="41"/>
+      <c r="U34" s="35"/>
+      <c r="W34" s="36"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
         <v>94</v>
       </c>
@@ -53285,8 +54334,28 @@
         <f t="shared" si="0"/>
         <v>1.2399619047619046</v>
       </c>
+      <c r="K35" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
+        <v>258</v>
+      </c>
+      <c r="N35" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O35" s="28">
+        <v>279.06976744186045</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" ref="P35:P41" si="9">M35*N35*60/1000/O35</f>
+        <v>1.4144850000000002</v>
+      </c>
+      <c r="R35" s="41"/>
+      <c r="U35" s="35"/>
+      <c r="W35" s="36"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="8"/>
       <c r="C36" s="25"/>
       <c r="D36" s="5">
@@ -53308,8 +54377,26 @@
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
+      <c r="K36" s="25"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5">
+        <v>273</v>
+      </c>
+      <c r="N36" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O36" s="28">
+        <v>214.28571428571428</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="9"/>
+        <v>1.94922</v>
+      </c>
+      <c r="R36" s="41"/>
+      <c r="U36" s="35"/>
+      <c r="W36" s="36"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>95</v>
       </c>
@@ -53335,8 +54422,26 @@
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5">
+        <v>274</v>
+      </c>
+      <c r="N37" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O37" s="28">
+        <v>191.48936170212767</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="9"/>
+        <v>2.18926</v>
+      </c>
+      <c r="R37" s="41"/>
+      <c r="U37" s="35"/>
+      <c r="W37" s="36"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B38" s="8"/>
       <c r="C38" s="25"/>
       <c r="D38" s="5">
@@ -53358,8 +54463,26 @@
         <f t="shared" si="0"/>
         <v>1.2297142857142858</v>
       </c>
+      <c r="K38" s="25"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <v>278</v>
+      </c>
+      <c r="N38" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O38" s="28">
+        <v>409.09090909090907</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="9"/>
+        <v>1.03972</v>
+      </c>
+      <c r="R38" s="41"/>
+      <c r="U38" s="35"/>
+      <c r="W38" s="36"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
         <v>96</v>
       </c>
@@ -53385,8 +54508,26 @@
         <f t="shared" si="0"/>
         <v>1.2150000000000001</v>
       </c>
+      <c r="K39" s="24"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5">
+        <v>272</v>
+      </c>
+      <c r="N39" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O39" s="28">
+        <v>266.66666666666669</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="9"/>
+        <v>1.5606</v>
+      </c>
+      <c r="R39" s="41"/>
+      <c r="U39" s="35"/>
+      <c r="W39" s="36"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="8"/>
       <c r="C40" s="25"/>
       <c r="D40" s="5">
@@ -53408,8 +54549,26 @@
         <f t="shared" si="0"/>
         <v>1.2297142857142858</v>
       </c>
+      <c r="K40" s="25"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5">
+        <v>275</v>
+      </c>
+      <c r="N40" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O40" s="28">
+        <v>257.14285714285717</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="9"/>
+        <v>1.6362499999999998</v>
+      </c>
+      <c r="R40" s="41"/>
+      <c r="U40" s="35"/>
+      <c r="W40" s="36"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="12" t="s">
         <v>97</v>
       </c>
@@ -53435,8 +54594,26 @@
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
+      <c r="K41" s="24"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5">
+        <v>260</v>
+      </c>
+      <c r="N41" s="10">
+        <v>25.5</v>
+      </c>
+      <c r="O41" s="28">
+        <v>233.76623376623377</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="9"/>
+        <v>1.7017</v>
+      </c>
+      <c r="R41" s="41"/>
+      <c r="U41" s="35"/>
+      <c r="W41" s="36"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B42" s="8"/>
       <c r="C42" s="25"/>
       <c r="D42" s="5">
@@ -53458,8 +54635,17 @@
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="32"/>
+      <c r="R42" s="41"/>
+      <c r="U42" s="35"/>
+      <c r="W42" s="36"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B43" s="12" t="s">
         <v>98</v>
       </c>
@@ -53485,8 +54671,14 @@
         <f t="shared" si="0"/>
         <v>1.2373962264150946</v>
       </c>
+      <c r="K43" s="33"/>
+      <c r="N43" s="35"/>
+      <c r="P43" s="36"/>
+      <c r="R43" s="33"/>
+      <c r="U43" s="35"/>
+      <c r="W43" s="36"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B44" s="8"/>
       <c r="C44" s="25"/>
       <c r="D44" s="5">
@@ -53508,8 +54700,14 @@
         <f t="shared" si="0"/>
         <v>1.2594193548387098</v>
       </c>
+      <c r="K44" s="33"/>
+      <c r="N44" s="35"/>
+      <c r="P44" s="36"/>
+      <c r="R44" s="33"/>
+      <c r="U44" s="35"/>
+      <c r="W44" s="36"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B45" s="12" t="s">
         <v>99</v>
       </c>
@@ -53535,8 +54733,14 @@
         <f t="shared" si="0"/>
         <v>1.2537904761904763</v>
       </c>
+      <c r="K45" s="33"/>
+      <c r="N45" s="35"/>
+      <c r="P45" s="36"/>
+      <c r="R45" s="33"/>
+      <c r="U45" s="35"/>
+      <c r="W45" s="36"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B46" s="8"/>
       <c r="C46" s="25"/>
       <c r="D46" s="5">
@@ -53558,8 +54762,14 @@
         <f t="shared" si="0"/>
         <v>1.2758823529411765</v>
       </c>
+      <c r="K46" s="33"/>
+      <c r="N46" s="35"/>
+      <c r="P46" s="36"/>
+      <c r="R46" s="33"/>
+      <c r="U46" s="35"/>
+      <c r="W46" s="36"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B47" s="12" t="s">
         <v>100</v>
       </c>
@@ -53585,8 +54795,14 @@
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K47" s="33"/>
+      <c r="N47" s="35"/>
+      <c r="P47" s="36"/>
+      <c r="R47" s="33"/>
+      <c r="U47" s="35"/>
+      <c r="W47" s="36"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B48" s="8"/>
       <c r="C48" s="25"/>
       <c r="D48" s="5">
@@ -53608,8 +54824,14 @@
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
+      <c r="K48" s="33"/>
+      <c r="N48" s="35"/>
+      <c r="P48" s="36"/>
+      <c r="R48" s="33"/>
+      <c r="U48" s="35"/>
+      <c r="W48" s="36"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
@@ -53635,8 +54857,14 @@
         <f t="shared" si="0"/>
         <v>1.2828506493506493</v>
       </c>
+      <c r="K49" s="33"/>
+      <c r="N49" s="35"/>
+      <c r="P49" s="36"/>
+      <c r="R49" s="33"/>
+      <c r="U49" s="35"/>
+      <c r="W49" s="36"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="25"/>
       <c r="D50" s="5">
@@ -53658,8 +54886,14 @@
         <f t="shared" si="0"/>
         <v>1.2415384615384615</v>
       </c>
+      <c r="K50" s="33"/>
+      <c r="N50" s="35"/>
+      <c r="P50" s="36"/>
+      <c r="R50" s="33"/>
+      <c r="U50" s="35"/>
+      <c r="W50" s="36"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B51" s="12" t="s">
         <v>102</v>
       </c>
@@ -53685,8 +54919,14 @@
         <f t="shared" si="0"/>
         <v>1.2440190476190476</v>
       </c>
+      <c r="K51" s="33"/>
+      <c r="N51" s="35"/>
+      <c r="P51" s="36"/>
+      <c r="R51" s="33"/>
+      <c r="U51" s="35"/>
+      <c r="W51" s="36"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B52" s="8"/>
       <c r="C52" s="25"/>
       <c r="D52" s="5">
@@ -53708,8 +54948,14 @@
         <f t="shared" si="0"/>
         <v>1.2582193548387097</v>
       </c>
+      <c r="K52" s="33"/>
+      <c r="N52" s="35"/>
+      <c r="P52" s="36"/>
+      <c r="R52" s="33"/>
+      <c r="U52" s="35"/>
+      <c r="W52" s="36"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B53" s="12" t="s">
         <v>103</v>
       </c>
@@ -53735,8 +54981,14 @@
         <f t="shared" si="0"/>
         <v>1.2541935483870967</v>
       </c>
+      <c r="K53" s="33"/>
+      <c r="N53" s="35"/>
+      <c r="P53" s="36"/>
+      <c r="R53" s="33"/>
+      <c r="U53" s="35"/>
+      <c r="W53" s="36"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
       <c r="C54" s="25"/>
       <c r="D54" s="5">
@@ -53758,8 +55010,14 @@
         <f t="shared" si="0"/>
         <v>1.2792774193548386</v>
       </c>
+      <c r="K54" s="33"/>
+      <c r="N54" s="35"/>
+      <c r="P54" s="36"/>
+      <c r="R54" s="33"/>
+      <c r="U54" s="35"/>
+      <c r="W54" s="36"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B55" s="12" t="s">
         <v>104</v>
       </c>
@@ -53785,8 +55043,12 @@
         <f t="shared" si="0"/>
         <v>1.2634951456310679</v>
       </c>
+      <c r="K55" s="33"/>
+      <c r="N55" s="35"/>
+      <c r="P55" s="36"/>
+      <c r="R55" s="33"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
       <c r="C56" s="25"/>
       <c r="D56" s="5">
@@ -53808,8 +55070,12 @@
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
+      <c r="K56" s="33"/>
+      <c r="N56" s="35"/>
+      <c r="P56" s="36"/>
+      <c r="R56" s="33"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B57" s="12" t="s">
         <v>105</v>
       </c>
@@ -53835,8 +55101,12 @@
         <f t="shared" si="0"/>
         <v>1.2646451612903227</v>
       </c>
+      <c r="K57" s="33"/>
+      <c r="N57" s="35"/>
+      <c r="P57" s="36"/>
+      <c r="R57" s="33"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
       <c r="C58" s="25"/>
       <c r="D58" s="5">
@@ -53858,8 +55128,12 @@
         <f t="shared" si="0"/>
         <v>1.2445714285714287</v>
       </c>
+      <c r="K58" s="33"/>
+      <c r="N58" s="35"/>
+      <c r="P58" s="36"/>
+      <c r="R58" s="33"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
         <v>106</v>
       </c>
@@ -53885,8 +55159,12 @@
         <f t="shared" si="0"/>
         <v>1.2271698113207548</v>
       </c>
+      <c r="K59" s="33"/>
+      <c r="N59" s="35"/>
+      <c r="P59" s="36"/>
+      <c r="R59" s="33"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
       <c r="C60" s="25"/>
       <c r="D60" s="5">
@@ -53908,8 +55186,12 @@
         <f t="shared" si="0"/>
         <v>1.2200625</v>
       </c>
+      <c r="K60" s="33"/>
+      <c r="N60" s="35"/>
+      <c r="P60" s="36"/>
+      <c r="R60" s="33"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B61" s="12" t="s">
         <v>107</v>
       </c>
@@ -53935,8 +55217,12 @@
         <f t="shared" si="0"/>
         <v>1.2251428571428571</v>
       </c>
+      <c r="K61" s="33"/>
+      <c r="N61" s="35"/>
+      <c r="P61" s="36"/>
+      <c r="R61" s="33"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
       <c r="C62" s="25"/>
       <c r="D62" s="5">
@@ -53958,8 +55244,12 @@
         <f t="shared" si="0"/>
         <v>1.2693290322580648</v>
       </c>
+      <c r="K62" s="33"/>
+      <c r="N62" s="35"/>
+      <c r="P62" s="36"/>
+      <c r="R62" s="33"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B63" s="12" t="s">
         <v>108</v>
       </c>
@@ -53985,8 +55275,12 @@
         <f t="shared" si="0"/>
         <v>1.2623376623376623</v>
       </c>
+      <c r="K63" s="33"/>
+      <c r="N63" s="35"/>
+      <c r="P63" s="36"/>
+      <c r="R63" s="33"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
       <c r="C64" s="25"/>
       <c r="D64" s="5">
@@ -54008,9 +55302,62 @@
         <f t="shared" si="0"/>
         <v>1.2599612903225805</v>
       </c>
+      <c r="K64" s="33"/>
+      <c r="N64" s="35"/>
+      <c r="P64" s="36"/>
+      <c r="R64" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="80">
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
@@ -54045,6 +55392,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B41:B42" twoDigitTextYear="1"/>
   </ignoredErrors>
